--- a/pred_ohlcv/54_21/2020-01-11 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-53643.89290000002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-53762.18320000002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-54677.18320000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-54677.18320000002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-52242.99780000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-51638.36570000002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-51638.36570000002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-50909.36580000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-50181.36580000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-50891.36580000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-51586.36580000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-47910.44795402001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-48270.84395402001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-48986.84395402001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-48071.23095402001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-48528.32875402002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-48139.31585402002</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-57039.31585402002</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-57039.31585402002</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-56557.98645402001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-57119.98645402001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-73074.53095402001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-73914.33065402001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-49389.85075402001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-49389.85075402001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-73411.69585402001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-63310.24635402001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-88438.91815402001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-73217.40525402001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-76735.86245402001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-77619.86245402001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-78264.85345402001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-77922.39405402</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-83762.93465402001</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-83762.93465402001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-83762.93465402001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-91429.48435402001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1294159.29838195</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1310812.23888195</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1294223.37688195</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1344285.83638195</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1300870.42698195</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1236191.677281951</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1230608.838881951</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1169328.286385531</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1169328.286385531</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1163396.183885531</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1172184.859585531</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1176879.610485531</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1160118.579885531</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1158886.232685531</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1147721.287785531</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1140342.410985531</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1191207.690285531</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-943190.4013855311</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-933190.4013855311</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-985649.014423941</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-975507.0097239411</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-53643.89290000002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-53762.18320000002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-54677.18320000002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-54677.18320000002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-52242.99780000002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-51638.36570000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-51638.36570000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-50909.36580000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-50181.36580000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-50891.36580000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-51586.36580000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-47910.44795402001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-48270.84395402001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-48986.84395402001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-48528.32875402002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-48139.31585402002</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-57039.31585402002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-57039.31585402002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-56557.98645402001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-57119.98645402001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-73074.53095402001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-73914.33065402001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-32881.78055402001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-49389.85075402001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-49389.85075402001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-73411.69585402001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-63310.24635402001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-88438.91815402001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-73217.40525402001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-76735.86245402001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-77619.86245402001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-78264.85345402001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-77922.39405402</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-83762.93465402001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-83762.93465402001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1294159.29838195</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1310812.23888195</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1307340.90618195</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1294223.37688195</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1344285.83638195</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1300870.42698195</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1279949.68558195</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1279949.68558195</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1286199.684581951</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1280547.042281951</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1296088.917481951</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1281851.155781951</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1317868.885981951</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1321917.869581951</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1236191.677281951</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1230608.838881951</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1229685.374381951</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1229885.374381951</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1224186.552385531</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1150718.404685531</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1169328.286385531</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1169328.286385531</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1118396.183885531</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1163396.183885531</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1207710.466085531</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1172184.859585531</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1176879.610485531</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1160118.579885531</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1158886.232685531</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1147721.287785531</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1140342.410985531</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1191207.690285531</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-943190.4013855311</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-933190.4013855311</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-985649.014423941</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-975507.0097239411</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
